--- a/data/README_data_common.xlsx
+++ b/data/README_data_common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94744463-13D7-479D-A62D-05DBF8E00FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04962472-1C86-4F96-A19C-DD8C99927C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32205" yWindow="3285" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35865" yWindow="3045" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="항목설명" sheetId="2" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금시세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>금시세변동률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +232,6 @@
   </si>
   <si>
     <t>SOX_INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold_Price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -684,6 +676,14 @@
   </si>
   <si>
     <t>선물과 옵션의 동시만기일</t>
+  </si>
+  <si>
+    <t>금시세(ounce, US dollar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_Price_ounce_dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,22 +1062,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,13 +1085,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1099,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1116,19 +1116,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1164,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1178,10 +1178,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1192,10 +1192,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1206,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1220,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1234,10 +1234,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1248,10 +1248,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1262,10 +1262,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1276,10 +1276,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1290,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1304,10 +1304,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1318,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1332,10 +1332,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1346,13 +1346,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,13 +1360,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
         <v>134</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,13 +1374,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1388,10 +1388,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1402,13 +1402,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
         <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,13 +1416,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1430,13 +1430,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
         <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,13 +1444,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,13 +1458,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,13 +1472,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,13 +1486,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,13 +1500,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,13 +1514,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,13 +1528,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,13 +1542,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,10 +1556,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1570,13 +1570,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,10 +1584,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1598,13 +1598,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,13 +1612,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,13 +1626,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,13 +1640,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,13 +1654,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1668,13 +1668,13 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,13 +1682,13 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1696,13 +1696,13 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,16 +1710,16 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1727,16 +1727,16 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1744,13 +1744,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1758,13 +1758,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1772,13 +1772,13 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1786,16 +1786,16 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1803,16 +1803,16 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
@@ -1820,13 +1820,13 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/README_data_common.xlsx
+++ b/data/README_data_common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04962472-1C86-4F96-A19C-DD8C99927C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71030D-206A-4491-9AFA-F66878C09BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35865" yWindow="3045" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="2460" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="항목설명" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
   <si>
     <t>나스닥지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한은금리인상률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연준금리인상률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FED_interest_rate_change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FED_interest_rate_change_implementation_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +244,6 @@
   </si>
   <si>
     <t>한은금리인상실시날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOK_interest_rate_change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,6 +667,66 @@
   </si>
   <si>
     <t>Gold_Price_ounce_dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fed_rate_fore</t>
+  </si>
+  <si>
+    <t>fed_rate_prev</t>
+  </si>
+  <si>
+    <t>bok_rate_fore</t>
+  </si>
+  <si>
+    <t>bok_rate_prev</t>
+  </si>
+  <si>
+    <t>FED_interest_forecast_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FED_interest_previous_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOK_interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FED_interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOK_interest_forecast_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOK_interest_previous_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연준금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한은금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연준금리직전금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한은금리인상예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연준금리인상예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한은금리직전금리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="B45" sqref="B45:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,22 +1106,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,13 +1129,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1099,16 +1143,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1116,19 +1160,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,10 +1180,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1150,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1164,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1178,10 +1222,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1192,10 +1236,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1206,10 +1250,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1220,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1234,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1248,10 +1292,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1262,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1276,10 +1320,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1290,10 +1334,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1304,10 +1348,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1318,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1332,10 +1376,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1346,13 +1390,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1360,13 +1404,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
         <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1374,13 +1418,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1388,10 +1432,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1402,13 +1446,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,13 +1460,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1430,13 +1474,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,13 +1488,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1458,13 +1502,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1472,13 +1516,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1486,13 +1530,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>149</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1500,13 +1544,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,13 +1558,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
         <v>146</v>
       </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,13 +1572,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,13 +1586,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
         <v>147</v>
       </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1570,13 +1614,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,10 +1628,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -1598,13 +1642,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,13 +1670,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1640,13 +1684,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,38 +1698,38 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -1693,140 +1737,196 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>162</v>
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/README_data_common.xlsx
+++ b/data/README_data_common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E71030D-206A-4491-9AFA-F66878C09BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A775B07-2701-4D37-824E-168FD626D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="2460" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32535" yWindow="3420" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="항목설명" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
   <si>
     <t>나스닥지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,14 +384,6 @@
   </si>
   <si>
     <t>bok_rate_ann</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fu_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>op_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dw_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Double_witching_day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,6 +715,38 @@
   </si>
   <si>
     <t>한은금리직전금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fu_usa_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_usa_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fu_kor_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op_kor_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dw_kor_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qw_usa_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quadruple_witching_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네마녀의 날</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B54"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1102,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="9" width="13.75" customWidth="1"/>
@@ -1118,10 +1138,10 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1135,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1278,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1390,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1424,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>129</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
         <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
         <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,13 +1536,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,13 +1550,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1564,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,13 +1578,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,13 +1592,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,13 +1606,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,13 +1676,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1670,13 +1690,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1684,13 +1704,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,13 +1718,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,10 +1735,10 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1743,10 +1763,10 @@
         <v>85</v>
       </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>168</v>
-      </c>
-      <c r="D45" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1754,13 +1774,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1768,13 +1788,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,7 +1819,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -1819,10 +1839,10 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1830,13 +1850,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,13 +1864,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,7 +1892,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>56</v>
@@ -1886,7 +1906,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -1903,7 +1923,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -1915,18 +1935,66 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/README_data_common.xlsx
+++ b/data/README_data_common.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ipynb\factors_affecting_stock_price\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A775B07-2701-4D37-824E-168FD626D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="3420" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32535" yWindow="3420" windowWidth="20025" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="항목설명" sheetId="2" r:id="rId1"/>
@@ -753,8 +752,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +781,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -803,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,6 +825,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1090,11 +1108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1180,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
@@ -1199,7 +1217,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
@@ -1227,7 +1245,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C7" t="s">
@@ -1255,7 +1273,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C9" t="s">
@@ -1283,7 +1301,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C11" t="s">
@@ -1311,7 +1329,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C13" t="s">
@@ -1339,7 +1357,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C15" t="s">
@@ -1367,7 +1385,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C17" t="s">
@@ -1395,7 +1413,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
@@ -1423,7 +1441,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C21" t="s">
@@ -1451,7 +1469,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C23" t="s">
@@ -1479,7 +1497,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C25" t="s">
@@ -1507,7 +1525,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C27" t="s">
@@ -1535,7 +1553,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C29" t="s">
@@ -1563,7 +1581,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C31" t="s">
@@ -1591,7 +1609,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C33" t="s">
@@ -1619,7 +1637,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
@@ -1661,7 +1679,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C38" t="s">
@@ -1689,7 +1707,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1703,7 +1721,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C41" t="s">
@@ -1717,7 +1735,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">

--- a/data/README_data_common.xlsx
+++ b/data/README_data_common.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ipynb\factors_affecting_stock_price\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter연습\factors_affecting_stock_price\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F824648-FC66-41B0-8C96-C65A2CACD4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="3420" windowWidth="20025" windowHeight="12030"/>
+    <workbookView xWindow="29655" yWindow="2550" windowWidth="20025" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="항목설명" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -752,7 +761,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,9 +835,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1108,11 +1119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1208,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
@@ -1231,7 +1242,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C6" t="s">
@@ -1259,7 +1270,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C8" t="s">
@@ -1287,7 +1298,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
@@ -1315,7 +1326,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C12" t="s">
@@ -1343,7 +1354,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C14" t="s">
@@ -1371,7 +1382,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C16" t="s">
@@ -1399,7 +1410,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C18" t="s">
@@ -1427,7 +1438,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C20" t="s">
@@ -1455,7 +1466,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
@@ -1483,7 +1494,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C24" t="s">
@@ -1511,7 +1522,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C26" t="s">
@@ -1539,7 +1550,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C28" t="s">
@@ -1553,7 +1564,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C29" t="s">
@@ -1567,7 +1578,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C30" t="s">
@@ -1581,7 +1592,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C31" t="s">
@@ -1595,7 +1606,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C32" t="s">
@@ -1609,7 +1620,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C33" t="s">
@@ -1623,7 +1634,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C34" t="s">
@@ -1651,7 +1662,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C36" t="s">
@@ -1665,7 +1676,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C37" t="s">
@@ -1693,7 +1704,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1721,7 +1732,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C41" t="s">
@@ -1735,7 +1746,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">
@@ -1749,7 +1760,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C43" t="s">
@@ -1763,7 +1774,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C44" t="s">
